--- a/Tables/VMU TTC address.xlsx
+++ b/Tables/VMU TTC address.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F70A3DA-587E-44DB-9D8E-379E2872EED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63C016E-A55E-4B24-9104-CB8BA3AD0BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{34EEFA93-EB2C-4184-BE16-B9AC2C59818C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{34EEFA93-EB2C-4184-BE16-B9AC2C59818C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
     <sheet name="Лист5" sheetId="5" r:id="rId2"/>
     <sheet name="Лист1" sheetId="6" r:id="rId3"/>
     <sheet name="Лист2" sheetId="7" r:id="rId4"/>
+    <sheet name="Лист4" sheetId="8" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5004" uniqueCount="1056">
   <si>
     <t>// Global manual enable</t>
   </si>
@@ -2864,6 +2867,348 @@
   </si>
   <si>
     <t>group D outputs</t>
+  </si>
+  <si>
+    <t>AUTOPILOT_ONLINE</t>
+  </si>
+  <si>
+    <t>0x210006</t>
+  </si>
+  <si>
+    <t>BRAKE_CMD_BKU</t>
+  </si>
+  <si>
+    <t>0x219006</t>
+  </si>
+  <si>
+    <t>DEV_INFO_SN_0</t>
+  </si>
+  <si>
+    <t>0x218001</t>
+  </si>
+  <si>
+    <t>DEV_INFO_SN_1</t>
+  </si>
+  <si>
+    <t>0x218002</t>
+  </si>
+  <si>
+    <t>DEV_INFO_SN_2</t>
+  </si>
+  <si>
+    <t>0x218003</t>
+  </si>
+  <si>
+    <t>DEV_INFO_SN_3</t>
+  </si>
+  <si>
+    <t>0x218004</t>
+  </si>
+  <si>
+    <t>DEV_INFO_USER_DATA_0</t>
+  </si>
+  <si>
+    <t>0x218101</t>
+  </si>
+  <si>
+    <t>DEV_INFO_USER_DATA_1</t>
+  </si>
+  <si>
+    <t>0x218102</t>
+  </si>
+  <si>
+    <t>DISCRETE_BRAKE_CMD_BKU</t>
+  </si>
+  <si>
+    <t>0x219003</t>
+  </si>
+  <si>
+    <t>DO_CMD_CHARGE_CP</t>
+  </si>
+  <si>
+    <t>0x217402</t>
+  </si>
+  <si>
+    <t>DO_CMD_CHARGE_STATE_LED</t>
+  </si>
+  <si>
+    <t>0x21740f</t>
+  </si>
+  <si>
+    <t>DO_CMD_DISCRETE_BRAKE_PUMP</t>
+  </si>
+  <si>
+    <t>0x21740c</t>
+  </si>
+  <si>
+    <t>DO_CMD_DISCRETE_BRAKE_VALVE_1_8</t>
+  </si>
+  <si>
+    <t>0x21740d</t>
+  </si>
+  <si>
+    <t>DO_CMD_DISCRETE_BRAKE_VALVE_2_9</t>
+  </si>
+  <si>
+    <t>0x21740e</t>
+  </si>
+  <si>
+    <t>DO_CMD_PARKING_BRAKE</t>
+  </si>
+  <si>
+    <t>0x217401</t>
+  </si>
+  <si>
+    <t>DO_CMD_START_PSTED</t>
+  </si>
+  <si>
+    <t>0x217403</t>
+  </si>
+  <si>
+    <t>DO_CMD_SUSP_VALVE_DOWN_1</t>
+  </si>
+  <si>
+    <t>0x217408</t>
+  </si>
+  <si>
+    <t>DO_CMD_SUSP_VALVE_DOWN_2</t>
+  </si>
+  <si>
+    <t>0x217409</t>
+  </si>
+  <si>
+    <t>DO_CMD_SUSP_VALVE_DOWN_3</t>
+  </si>
+  <si>
+    <t>0x21740a</t>
+  </si>
+  <si>
+    <t>DO_CMD_SUSP_VALVE_DOWN_4</t>
+  </si>
+  <si>
+    <t>0x21740b</t>
+  </si>
+  <si>
+    <t>DO_CMD_SUSP_VALVE_UP_1</t>
+  </si>
+  <si>
+    <t>0x217404</t>
+  </si>
+  <si>
+    <t>DO_CMD_SUSP_VALVE_UP_2</t>
+  </si>
+  <si>
+    <t>0x217405</t>
+  </si>
+  <si>
+    <t>DO_CMD_SUSP_VALVE_UP_3</t>
+  </si>
+  <si>
+    <t>0x217406</t>
+  </si>
+  <si>
+    <t>DO_CMD_SUSP_VALVE_UP_4</t>
+  </si>
+  <si>
+    <t>0x217407</t>
+  </si>
+  <si>
+    <t>ENABLE_BKU_RX</t>
+  </si>
+  <si>
+    <t>0x210005</t>
+  </si>
+  <si>
+    <t>LIGHTS_BKU_ENABLE_BACK</t>
+  </si>
+  <si>
+    <t>0x21900a</t>
+  </si>
+  <si>
+    <t>LIGHTS_BKU_ENABLE_HEAD</t>
+  </si>
+  <si>
+    <t>0x21900b</t>
+  </si>
+  <si>
+    <t>LIGHTS_BKU_ENABLE_STOP</t>
+  </si>
+  <si>
+    <t>0x219009</t>
+  </si>
+  <si>
+    <t>LIGHTS_BKU_TURN_LEFT_CTRL</t>
+  </si>
+  <si>
+    <t>0x219007</t>
+  </si>
+  <si>
+    <t>LIGHTS_BKU_TURN_RIGHT_CTRL</t>
+  </si>
+  <si>
+    <t>0x219008</t>
+  </si>
+  <si>
+    <t>PARKING_BRAKE_CMD_HOLD_BKU</t>
+  </si>
+  <si>
+    <t>0x219002</t>
+  </si>
+  <si>
+    <t>PSTED_BKU_REF_TORQUE</t>
+  </si>
+  <si>
+    <t>0x219004</t>
+  </si>
+  <si>
+    <t>0x219005</t>
+  </si>
+  <si>
+    <t>0x21900c</t>
+  </si>
+  <si>
+    <t>SUSPENSION_BKU_ENABLE</t>
+  </si>
+  <si>
+    <t>0x21900d</t>
+  </si>
+  <si>
+    <t>SUSPENSION_BKU_HEIGHT_CMD_1</t>
+  </si>
+  <si>
+    <t>0x21900e</t>
+  </si>
+  <si>
+    <t>SUSPENSION_BKU_HEIGHT_CMD_2</t>
+  </si>
+  <si>
+    <t>0x21900f</t>
+  </si>
+  <si>
+    <t>SUSPENSION_BKU_HEIGHT_CMD_3</t>
+  </si>
+  <si>
+    <t>0x219010</t>
+  </si>
+  <si>
+    <t>SUSPENSION_BKU_HEIGHT_CMD_4</t>
+  </si>
+  <si>
+    <t>0x219011</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_CUR_RAW_1</t>
+  </si>
+  <si>
+    <t>0x21300b</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_CUR_RAW_2</t>
+  </si>
+  <si>
+    <t>0x21300c</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_CUR_RAW_3</t>
+  </si>
+  <si>
+    <t>0x21300d</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_CUR_RAW_4</t>
+  </si>
+  <si>
+    <t>0x21300e</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_MAX</t>
+  </si>
+  <si>
+    <t>0x213117</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_MIN</t>
+  </si>
+  <si>
+    <t>0x213116</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_SENSOR_MAX_1</t>
+  </si>
+  <si>
+    <t>0x213112</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_SENSOR_MAX_2</t>
+  </si>
+  <si>
+    <t>0x213113</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_SENSOR_MAX_3</t>
+  </si>
+  <si>
+    <t>0x213114</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_SENSOR_MAX_4</t>
+  </si>
+  <si>
+    <t>0x213115</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_SENSOR_MIN_1</t>
+  </si>
+  <si>
+    <t>0x21310e</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_SENSOR_MIN_2</t>
+  </si>
+  <si>
+    <t>0x21310f</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_SENSOR_MIN_3</t>
+  </si>
+  <si>
+    <t>0x213110</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_SENSOR_MIN_4</t>
+  </si>
+  <si>
+    <t>0x213111</t>
+  </si>
+  <si>
+    <t>SUSPENSION_PWD_CUR_1</t>
+  </si>
+  <si>
+    <t>0x21300f</t>
+  </si>
+  <si>
+    <t>SUSPENSION_PWD_CUR_2</t>
+  </si>
+  <si>
+    <t>0x213010</t>
+  </si>
+  <si>
+    <t>SUSPENSION_PWD_CUR_3</t>
+  </si>
+  <si>
+    <t>0x213011</t>
+  </si>
+  <si>
+    <t>SUSPENSION_PWD_CUR_4</t>
+  </si>
+  <si>
+    <t>0x213012</t>
+  </si>
+  <si>
+    <t>VMU_WORK_MODE_CMD_ARMED</t>
+  </si>
+  <si>
+    <t>0x219001</t>
   </si>
 </sst>
 </file>
@@ -11128,8 +11473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28379F40-EB43-4774-B44D-A5F1E8CD8585}">
   <dimension ref="A1:O276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="A258" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17803,7 +18148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120FF3D4-2D5A-49E3-9C16-8A0AFC226244}">
   <dimension ref="A1:O247"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -22681,4 +23026,9169 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4E5E29-B508-4F5D-8827-D7A9F4DE8F44}">
+  <dimension ref="A1:O255"/>
+  <sheetViews>
+    <sheetView topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>938</v>
+      </c>
+      <c r="K3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4.0966816878328549</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>918</v>
+      </c>
+      <c r="K4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
+        <v>796</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>797</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>798</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>799</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>801</v>
+      </c>
+      <c r="B9" t="s">
+        <v>802</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>938</v>
+      </c>
+      <c r="K9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s">
+        <v>794</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" t="s">
+        <v>791</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>931</v>
+      </c>
+      <c r="K11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>803</v>
+      </c>
+      <c r="B12" t="s">
+        <v>804</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>939</v>
+      </c>
+      <c r="K12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>805</v>
+      </c>
+      <c r="B13" t="s">
+        <v>806</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>939</v>
+      </c>
+      <c r="K13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>807</v>
+      </c>
+      <c r="B14" t="s">
+        <v>808</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>939</v>
+      </c>
+      <c r="K14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>809</v>
+      </c>
+      <c r="B15" t="s">
+        <v>810</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>939</v>
+      </c>
+      <c r="K15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" t="s">
+        <v>792</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4.0966816878328549</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>937</v>
+      </c>
+      <c r="K16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s">
+        <v>790</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>779</v>
+      </c>
+      <c r="B18" t="s">
+        <v>780</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>646</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>911</v>
+      </c>
+      <c r="K19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>679</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>925</v>
+      </c>
+      <c r="K20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>689</v>
+      </c>
+      <c r="B21" t="s">
+        <v>690</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>645</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>925</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>643</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>925</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>644</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>925</v>
+      </c>
+      <c r="K24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
+        <v>656</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>673</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>676</v>
+      </c>
+      <c r="B27" t="s">
+        <v>677</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>925</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>691</v>
+      </c>
+      <c r="B28" t="s">
+        <v>692</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B29" t="s">
+        <v>675</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>925</v>
+      </c>
+      <c r="K29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>693</v>
+      </c>
+      <c r="B30" t="s">
+        <v>694</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" t="s">
+        <v>701</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2.5</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>914</v>
+      </c>
+      <c r="K31" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>702</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2.5</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>914</v>
+      </c>
+      <c r="K32" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>703</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2.5</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>914</v>
+      </c>
+      <c r="K33" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>704</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2.5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>914</v>
+      </c>
+      <c r="K34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>705</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2.5</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>914</v>
+      </c>
+      <c r="K35" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>696</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>911</v>
+      </c>
+      <c r="K36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
+        <v>697</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>911</v>
+      </c>
+      <c r="K37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
+        <v>698</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>911</v>
+      </c>
+      <c r="K38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>699</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>911</v>
+      </c>
+      <c r="K39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>700</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>911</v>
+      </c>
+      <c r="K40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" t="s">
+        <v>655</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>783</v>
+      </c>
+      <c r="B42" t="s">
+        <v>784</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>911</v>
+      </c>
+      <c r="K42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>785</v>
+      </c>
+      <c r="B43" t="s">
+        <v>786</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>911</v>
+      </c>
+      <c r="K43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>661</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2.5</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>914</v>
+      </c>
+      <c r="K44" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>662</v>
+      </c>
+      <c r="B45" t="s">
+        <v>663</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>680</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>659</v>
+      </c>
+      <c r="B47" t="s">
+        <v>660</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>925</v>
+      </c>
+      <c r="K47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>657</v>
+      </c>
+      <c r="B48" t="s">
+        <v>658</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2.5</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>914</v>
+      </c>
+      <c r="K48" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>654</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>653</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s">
+        <v>652</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s">
+        <v>651</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" t="s">
+        <v>678</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>666</v>
+      </c>
+      <c r="B54" t="s">
+        <v>667</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>911</v>
+      </c>
+      <c r="K54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>668</v>
+      </c>
+      <c r="B55" t="s">
+        <v>669</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>911</v>
+      </c>
+      <c r="K55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>664</v>
+      </c>
+      <c r="B56" t="s">
+        <v>665</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>647</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>926</v>
+      </c>
+      <c r="K57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>648</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>926</v>
+      </c>
+      <c r="K58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>649</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>926</v>
+      </c>
+      <c r="K59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>650</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>926</v>
+      </c>
+      <c r="K60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>685</v>
+      </c>
+      <c r="B61" t="s">
+        <v>686</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>681</v>
+      </c>
+      <c r="B62" t="s">
+        <v>682</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>687</v>
+      </c>
+      <c r="B63" t="s">
+        <v>688</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>683</v>
+      </c>
+      <c r="B64" t="s">
+        <v>684</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>519</v>
+      </c>
+      <c r="B65" t="s">
+        <v>520</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>670</v>
+      </c>
+      <c r="B66" t="s">
+        <v>671</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>525</v>
+      </c>
+      <c r="B67" t="s">
+        <v>526</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>539</v>
+      </c>
+      <c r="B68" t="s">
+        <v>540</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>535</v>
+      </c>
+      <c r="B69" t="s">
+        <v>536</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>548</v>
+      </c>
+      <c r="B70" t="s">
+        <v>549</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>533</v>
+      </c>
+      <c r="B71" t="s">
+        <v>534</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>546</v>
+      </c>
+      <c r="B72" t="s">
+        <v>547</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>537</v>
+      </c>
+      <c r="B73" t="s">
+        <v>538</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>550</v>
+      </c>
+      <c r="B74" t="s">
+        <v>551</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>527</v>
+      </c>
+      <c r="B75" t="s">
+        <v>528</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>542</v>
+      </c>
+      <c r="B76" t="s">
+        <v>543</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>529</v>
+      </c>
+      <c r="B77" t="s">
+        <v>530</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>531</v>
+      </c>
+      <c r="B78" t="s">
+        <v>532</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>544</v>
+      </c>
+      <c r="B79" t="s">
+        <v>545</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>714</v>
+      </c>
+      <c r="B80" t="s">
+        <v>715</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>712</v>
+      </c>
+      <c r="B81" t="s">
+        <v>713</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>720</v>
+      </c>
+      <c r="B82" t="s">
+        <v>721</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>911</v>
+      </c>
+      <c r="K82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>718</v>
+      </c>
+      <c r="B83" t="s">
+        <v>719</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>716</v>
+      </c>
+      <c r="B84" t="s">
+        <v>717</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" t="s">
+        <v>778</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>911</v>
+      </c>
+      <c r="K85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86" t="s">
+        <v>777</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>916</v>
+      </c>
+      <c r="K86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>512</v>
+      </c>
+      <c r="B87" t="s">
+        <v>513</v>
+      </c>
+      <c r="K87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>824</v>
+      </c>
+      <c r="B88" t="s">
+        <v>825</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>917</v>
+      </c>
+      <c r="K88" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>822</v>
+      </c>
+      <c r="B89" t="s">
+        <v>823</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>917</v>
+      </c>
+      <c r="K89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>826</v>
+      </c>
+      <c r="B90" t="s">
+        <v>827</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>820</v>
+      </c>
+      <c r="B91" t="s">
+        <v>821</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>917</v>
+      </c>
+      <c r="K91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>818</v>
+      </c>
+      <c r="B92" t="s">
+        <v>819</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>917</v>
+      </c>
+      <c r="K92" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>816</v>
+      </c>
+      <c r="B93" t="s">
+        <v>817</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>917</v>
+      </c>
+      <c r="K93" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>814</v>
+      </c>
+      <c r="B94" t="s">
+        <v>815</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>917</v>
+      </c>
+      <c r="K94" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>829</v>
+      </c>
+      <c r="B95" t="s">
+        <v>830</v>
+      </c>
+      <c r="K95" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>831</v>
+      </c>
+      <c r="B96" t="s">
+        <v>832</v>
+      </c>
+      <c r="K96" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>839</v>
+      </c>
+      <c r="B97" t="s">
+        <v>840</v>
+      </c>
+      <c r="K97" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>835</v>
+      </c>
+      <c r="B98" t="s">
+        <v>836</v>
+      </c>
+      <c r="K98" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>841</v>
+      </c>
+      <c r="B99" t="s">
+        <v>842</v>
+      </c>
+      <c r="K99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>847</v>
+      </c>
+      <c r="B100" t="s">
+        <v>848</v>
+      </c>
+      <c r="K100" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>843</v>
+      </c>
+      <c r="B101" t="s">
+        <v>844</v>
+      </c>
+      <c r="K101" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>845</v>
+      </c>
+      <c r="B102" t="s">
+        <v>846</v>
+      </c>
+      <c r="K102" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>837</v>
+      </c>
+      <c r="B103" t="s">
+        <v>838</v>
+      </c>
+      <c r="K103" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>833</v>
+      </c>
+      <c r="B104" t="s">
+        <v>834</v>
+      </c>
+      <c r="K104" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>882</v>
+      </c>
+      <c r="B105" t="s">
+        <v>883</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="K105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>908</v>
+      </c>
+      <c r="B106" t="s">
+        <v>909</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>902</v>
+      </c>
+      <c r="B107" t="s">
+        <v>903</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>904</v>
+      </c>
+      <c r="B108" t="s">
+        <v>905</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>906</v>
+      </c>
+      <c r="B109" t="s">
+        <v>907</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>880</v>
+      </c>
+      <c r="B110" t="s">
+        <v>881</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>884</v>
+      </c>
+      <c r="B111" t="s">
+        <v>885</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>894</v>
+      </c>
+      <c r="B112" t="s">
+        <v>895</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>896</v>
+      </c>
+      <c r="B113" t="s">
+        <v>897</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>898</v>
+      </c>
+      <c r="B114" t="s">
+        <v>899</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>900</v>
+      </c>
+      <c r="B115" t="s">
+        <v>901</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="K115" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>886</v>
+      </c>
+      <c r="B116" t="s">
+        <v>887</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="K116" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>888</v>
+      </c>
+      <c r="B117" t="s">
+        <v>889</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="K117" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>890</v>
+      </c>
+      <c r="B118" t="s">
+        <v>891</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>892</v>
+      </c>
+      <c r="B119" t="s">
+        <v>893</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="K119" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>517</v>
+      </c>
+      <c r="B120" t="s">
+        <v>518</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>852</v>
+      </c>
+      <c r="B121" t="s">
+        <v>853</v>
+      </c>
+      <c r="K121" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>878</v>
+      </c>
+      <c r="B122" t="s">
+        <v>879</v>
+      </c>
+      <c r="K122" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>872</v>
+      </c>
+      <c r="B123" t="s">
+        <v>873</v>
+      </c>
+      <c r="K123" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>874</v>
+      </c>
+      <c r="B124" t="s">
+        <v>875</v>
+      </c>
+      <c r="K124" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>876</v>
+      </c>
+      <c r="B125" t="s">
+        <v>877</v>
+      </c>
+      <c r="K125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>850</v>
+      </c>
+      <c r="B126" t="s">
+        <v>851</v>
+      </c>
+      <c r="K126" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>854</v>
+      </c>
+      <c r="B127" t="s">
+        <v>855</v>
+      </c>
+      <c r="K127" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>864</v>
+      </c>
+      <c r="B128" t="s">
+        <v>865</v>
+      </c>
+      <c r="K128" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>866</v>
+      </c>
+      <c r="B129" t="s">
+        <v>867</v>
+      </c>
+      <c r="K129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>868</v>
+      </c>
+      <c r="B130" t="s">
+        <v>869</v>
+      </c>
+      <c r="K130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>870</v>
+      </c>
+      <c r="B131" t="s">
+        <v>871</v>
+      </c>
+      <c r="K131" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>856</v>
+      </c>
+      <c r="B132" t="s">
+        <v>857</v>
+      </c>
+      <c r="K132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>858</v>
+      </c>
+      <c r="B133" t="s">
+        <v>859</v>
+      </c>
+      <c r="K133" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>860</v>
+      </c>
+      <c r="B134" t="s">
+        <v>861</v>
+      </c>
+      <c r="K134" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>862</v>
+      </c>
+      <c r="B135" t="s">
+        <v>863</v>
+      </c>
+      <c r="K135" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" t="s">
+        <v>522</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="K136" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B137" t="s">
+        <v>523</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="K137" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>42</v>
+      </c>
+      <c r="B138" t="s">
+        <v>514</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="K138" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>105</v>
+      </c>
+      <c r="B139" t="s">
+        <v>633</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="K139" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>103</v>
+      </c>
+      <c r="B140" t="s">
+        <v>631</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="K140" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>104</v>
+      </c>
+      <c r="B141" t="s">
+        <v>632</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="K141" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>106</v>
+      </c>
+      <c r="B142" t="s">
+        <v>634</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="K142" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143" t="s">
+        <v>635</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="K143" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>489</v>
+      </c>
+      <c r="B144" t="s">
+        <v>516</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="K144" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" t="s">
+        <v>521</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>911</v>
+      </c>
+      <c r="K145" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>725</v>
+      </c>
+      <c r="B146" t="s">
+        <v>726</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="K146" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>727</v>
+      </c>
+      <c r="B147" t="s">
+        <v>728</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="K147" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>729</v>
+      </c>
+      <c r="B148" t="s">
+        <v>730</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="K148" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>731</v>
+      </c>
+      <c r="B149" t="s">
+        <v>732</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="K149" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>733</v>
+      </c>
+      <c r="B150" t="s">
+        <v>734</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="K150" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>735</v>
+      </c>
+      <c r="B151" t="s">
+        <v>736</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="K151" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>737</v>
+      </c>
+      <c r="B152" t="s">
+        <v>738</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="K152" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>739</v>
+      </c>
+      <c r="B153" t="s">
+        <v>740</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="K153" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>741</v>
+      </c>
+      <c r="B154" t="s">
+        <v>742</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="K154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>743</v>
+      </c>
+      <c r="B155" t="s">
+        <v>744</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="K155" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>723</v>
+      </c>
+      <c r="B156" t="s">
+        <v>724</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="K156" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>636</v>
+      </c>
+      <c r="B157" t="s">
+        <v>637</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="K157" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>638</v>
+      </c>
+      <c r="B158" t="s">
+        <v>639</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>911</v>
+      </c>
+      <c r="K158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>640</v>
+      </c>
+      <c r="B159" t="s">
+        <v>641</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="K159" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>787</v>
+      </c>
+      <c r="B160" t="s">
+        <v>788</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="K160" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>496</v>
+      </c>
+      <c r="B161" t="s">
+        <v>497</v>
+      </c>
+      <c r="C161" t="s">
+        <v>498</v>
+      </c>
+      <c r="D161" t="s">
+        <v>499</v>
+      </c>
+      <c r="E161" t="s">
+        <v>500</v>
+      </c>
+      <c r="F161" t="s">
+        <v>501</v>
+      </c>
+      <c r="G161" t="s">
+        <v>502</v>
+      </c>
+      <c r="H161" t="s">
+        <v>503</v>
+      </c>
+      <c r="I161" t="s">
+        <v>504</v>
+      </c>
+      <c r="J161" t="s">
+        <v>505</v>
+      </c>
+      <c r="K161" t="s">
+        <v>506</v>
+      </c>
+      <c r="L161" t="s">
+        <v>507</v>
+      </c>
+      <c r="M161" t="s">
+        <v>508</v>
+      </c>
+      <c r="N161" t="s">
+        <v>509</v>
+      </c>
+      <c r="O161" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>493</v>
+      </c>
+      <c r="B162" t="s">
+        <v>781</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="K162" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>494</v>
+      </c>
+      <c r="B163" t="s">
+        <v>782</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="K163" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>155</v>
+      </c>
+      <c r="B164" t="s">
+        <v>707</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>911</v>
+      </c>
+      <c r="K164" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>587</v>
+      </c>
+      <c r="B165" t="s">
+        <v>588</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="K165" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>55</v>
+      </c>
+      <c r="B166" t="s">
+        <v>570</v>
+      </c>
+      <c r="E166">
+        <v>0.19538461538461549</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>915</v>
+      </c>
+      <c r="K166" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>593</v>
+      </c>
+      <c r="B167" t="s">
+        <v>594</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>91.01944444444436</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>917</v>
+      </c>
+      <c r="K167" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>595</v>
+      </c>
+      <c r="B168" t="s">
+        <v>596</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>918</v>
+      </c>
+      <c r="K168" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>64</v>
+      </c>
+      <c r="B169" t="s">
+        <v>579</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="K169" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>65</v>
+      </c>
+      <c r="B170" t="s">
+        <v>580</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="K170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>60</v>
+      </c>
+      <c r="B171" t="s">
+        <v>575</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>40</v>
+      </c>
+      <c r="G171" t="s">
+        <v>917</v>
+      </c>
+      <c r="K171" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>591</v>
+      </c>
+      <c r="B172" t="s">
+        <v>592</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>65535.000000001797</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="K172" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>62</v>
+      </c>
+      <c r="B173" t="s">
+        <v>577</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>40</v>
+      </c>
+      <c r="G173" t="s">
+        <v>917</v>
+      </c>
+      <c r="K173" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>61</v>
+      </c>
+      <c r="B174" t="s">
+        <v>576</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>40</v>
+      </c>
+      <c r="G174" t="s">
+        <v>917</v>
+      </c>
+      <c r="K174" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>63</v>
+      </c>
+      <c r="B175" t="s">
+        <v>578</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="K175" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>67</v>
+      </c>
+      <c r="B176" t="s">
+        <v>582</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>327.67000000000212</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>914</v>
+      </c>
+      <c r="K176" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>589</v>
+      </c>
+      <c r="B177" t="s">
+        <v>590</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177" t="s">
+        <v>915</v>
+      </c>
+      <c r="K177" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>54</v>
+      </c>
+      <c r="B178" t="s">
+        <v>569</v>
+      </c>
+      <c r="E178">
+        <v>4.0958750000000093</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>918</v>
+      </c>
+      <c r="K178" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>59</v>
+      </c>
+      <c r="B179" t="s">
+        <v>574</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>40</v>
+      </c>
+      <c r="G179" t="s">
+        <v>917</v>
+      </c>
+      <c r="K179" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>50</v>
+      </c>
+      <c r="B180" t="s">
+        <v>560</v>
+      </c>
+      <c r="E180">
+        <v>10</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>916</v>
+      </c>
+      <c r="K180" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>47</v>
+      </c>
+      <c r="B181" t="s">
+        <v>554</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="K181" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>563</v>
+      </c>
+      <c r="B182" t="s">
+        <v>564</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182" t="s">
+        <v>918</v>
+      </c>
+      <c r="K182" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>561</v>
+      </c>
+      <c r="B183" t="s">
+        <v>562</v>
+      </c>
+      <c r="E183">
+        <v>91.01944444444436</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183" t="s">
+        <v>917</v>
+      </c>
+      <c r="K183" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>558</v>
+      </c>
+      <c r="B184" t="s">
+        <v>559</v>
+      </c>
+      <c r="E184">
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>915</v>
+      </c>
+      <c r="K184" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>555</v>
+      </c>
+      <c r="B185" t="s">
+        <v>556</v>
+      </c>
+      <c r="E185">
+        <v>327.67000000000212</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>914</v>
+      </c>
+      <c r="K185" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>46</v>
+      </c>
+      <c r="B186" t="s">
+        <v>553</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="K186" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>58</v>
+      </c>
+      <c r="B187" t="s">
+        <v>573</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>916</v>
+      </c>
+      <c r="K187" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>56</v>
+      </c>
+      <c r="B188" t="s">
+        <v>571</v>
+      </c>
+      <c r="E188">
+        <v>0.84666666666666979</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>916</v>
+      </c>
+      <c r="K188" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>69</v>
+      </c>
+      <c r="B189" t="s">
+        <v>585</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>655.35000000001821</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>914</v>
+      </c>
+      <c r="K189" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>70</v>
+      </c>
+      <c r="B190" t="s">
+        <v>586</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>911</v>
+      </c>
+      <c r="K190" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>52</v>
+      </c>
+      <c r="B191" t="s">
+        <v>566</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="K191" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>53</v>
+      </c>
+      <c r="B192" t="s">
+        <v>567</v>
+      </c>
+      <c r="E192">
+        <v>1.2699999999999989</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>914</v>
+      </c>
+      <c r="K192" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>68</v>
+      </c>
+      <c r="B193" t="s">
+        <v>584</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="K193" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>57</v>
+      </c>
+      <c r="B194" t="s">
+        <v>572</v>
+      </c>
+      <c r="E194">
+        <v>0.15740740740740761</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>916</v>
+      </c>
+      <c r="K194" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>66</v>
+      </c>
+      <c r="B195" t="s">
+        <v>581</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="K195" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>157</v>
+      </c>
+      <c r="B196" t="s">
+        <v>722</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="K196" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>75</v>
+      </c>
+      <c r="B197" t="s">
+        <v>602</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="K197" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>89</v>
+      </c>
+      <c r="B198" t="s">
+        <v>617</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="K198" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>76</v>
+      </c>
+      <c r="B199" t="s">
+        <v>603</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="K199" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>90</v>
+      </c>
+      <c r="B200" t="s">
+        <v>618</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="K200" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>71</v>
+      </c>
+      <c r="B201" t="s">
+        <v>598</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="K201" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>72</v>
+      </c>
+      <c r="B202" t="s">
+        <v>599</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="K202" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>84</v>
+      </c>
+      <c r="B203" t="s">
+        <v>610</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>98</v>
+      </c>
+      <c r="B204" t="s">
+        <v>625</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="K204" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>82</v>
+      </c>
+      <c r="B205" t="s">
+        <v>608</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="K205" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>96</v>
+      </c>
+      <c r="B206" t="s">
+        <v>623</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="K206" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>83</v>
+      </c>
+      <c r="B207" t="s">
+        <v>609</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="K207" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>97</v>
+      </c>
+      <c r="B208" t="s">
+        <v>624</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="K208" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>74</v>
+      </c>
+      <c r="B209" t="s">
+        <v>600</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="K209" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>81</v>
+      </c>
+      <c r="B210" t="s">
+        <v>607</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="K210" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>95</v>
+      </c>
+      <c r="B211" t="s">
+        <v>622</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="K211" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>77</v>
+      </c>
+      <c r="B212" t="s">
+        <v>604</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="K212" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>91</v>
+      </c>
+      <c r="B213" t="s">
+        <v>619</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="K213" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>78</v>
+      </c>
+      <c r="B214" t="s">
+        <v>605</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="K214" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>92</v>
+      </c>
+      <c r="B215" t="s">
+        <v>620</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="K215" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>86</v>
+      </c>
+      <c r="B216" t="s">
+        <v>612</v>
+      </c>
+      <c r="E216">
+        <v>100</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>922</v>
+      </c>
+      <c r="K216" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>100</v>
+      </c>
+      <c r="B217" t="s">
+        <v>627</v>
+      </c>
+      <c r="E217">
+        <v>100</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217" t="s">
+        <v>922</v>
+      </c>
+      <c r="K217" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>88</v>
+      </c>
+      <c r="B218" t="s">
+        <v>615</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>917</v>
+      </c>
+      <c r="K218" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>102</v>
+      </c>
+      <c r="B219" t="s">
+        <v>629</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219" t="s">
+        <v>917</v>
+      </c>
+      <c r="K219" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>79</v>
+      </c>
+      <c r="B220" t="s">
+        <v>606</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="K220" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>93</v>
+      </c>
+      <c r="B221" t="s">
+        <v>621</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="K221" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>85</v>
+      </c>
+      <c r="B222" t="s">
+        <v>611</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="K222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>99</v>
+      </c>
+      <c r="B223" t="s">
+        <v>626</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="K223" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>87</v>
+      </c>
+      <c r="B224" t="s">
+        <v>614</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224" t="s">
+        <v>917</v>
+      </c>
+      <c r="K224" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>101</v>
+      </c>
+      <c r="B225" t="s">
+        <v>628</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225" t="s">
+        <v>917</v>
+      </c>
+      <c r="K225" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>159</v>
+      </c>
+      <c r="B226" t="s">
+        <v>746</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" t="s">
+        <v>931</v>
+      </c>
+      <c r="K226" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>160</v>
+      </c>
+      <c r="B227" t="s">
+        <v>747</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227" t="s">
+        <v>931</v>
+      </c>
+      <c r="K227" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>161</v>
+      </c>
+      <c r="B228" t="s">
+        <v>748</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228" t="s">
+        <v>931</v>
+      </c>
+      <c r="K228" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>162</v>
+      </c>
+      <c r="B229" t="s">
+        <v>749</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229" t="s">
+        <v>931</v>
+      </c>
+      <c r="K229" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>177</v>
+      </c>
+      <c r="B230" t="s">
+        <v>765</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>931</v>
+      </c>
+      <c r="K230" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>179</v>
+      </c>
+      <c r="B231" t="s">
+        <v>766</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231" t="s">
+        <v>931</v>
+      </c>
+      <c r="K231" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>178</v>
+      </c>
+      <c r="B232" t="s">
+        <v>767</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232" t="s">
+        <v>931</v>
+      </c>
+      <c r="K232" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>180</v>
+      </c>
+      <c r="B233" t="s">
+        <v>768</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233" t="s">
+        <v>931</v>
+      </c>
+      <c r="K233" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>173</v>
+      </c>
+      <c r="B234" t="s">
+        <v>761</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="K234" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>174</v>
+      </c>
+      <c r="B235" t="s">
+        <v>762</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="K235" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>175</v>
+      </c>
+      <c r="B236" t="s">
+        <v>763</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="K236" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>176</v>
+      </c>
+      <c r="B237" t="s">
+        <v>764</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="K237" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>172</v>
+      </c>
+      <c r="B238" t="s">
+        <v>760</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="K238" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>170</v>
+      </c>
+      <c r="B239" t="s">
+        <v>758</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239" t="s">
+        <v>931</v>
+      </c>
+      <c r="K239" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>163</v>
+      </c>
+      <c r="B240" t="s">
+        <v>750</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
+        <v>932</v>
+      </c>
+      <c r="K240" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>164</v>
+      </c>
+      <c r="B241" t="s">
+        <v>751</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241" t="s">
+        <v>932</v>
+      </c>
+      <c r="K241" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>165</v>
+      </c>
+      <c r="B242" t="s">
+        <v>752</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>932</v>
+      </c>
+      <c r="K242" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>166</v>
+      </c>
+      <c r="B243" t="s">
+        <v>753</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
+        <v>932</v>
+      </c>
+      <c r="K243" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>168</v>
+      </c>
+      <c r="B244" t="s">
+        <v>756</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>932</v>
+      </c>
+      <c r="K244" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>169</v>
+      </c>
+      <c r="B245" t="s">
+        <v>757</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245" t="s">
+        <v>932</v>
+      </c>
+      <c r="K245" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>171</v>
+      </c>
+      <c r="B246" t="s">
+        <v>759</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="K246" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>167</v>
+      </c>
+      <c r="B247" t="s">
+        <v>754</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="K247" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>182</v>
+      </c>
+      <c r="B248" t="s">
+        <v>771</v>
+      </c>
+      <c r="E248">
+        <v>1000</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>916</v>
+      </c>
+      <c r="K248" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>185</v>
+      </c>
+      <c r="B249" t="s">
+        <v>774</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1000</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>916</v>
+      </c>
+      <c r="K249" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>186</v>
+      </c>
+      <c r="B250" t="s">
+        <v>775</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1000</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250" t="s">
+        <v>916</v>
+      </c>
+      <c r="K250" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>181</v>
+      </c>
+      <c r="B251" t="s">
+        <v>770</v>
+      </c>
+      <c r="E251">
+        <v>1000</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>916</v>
+      </c>
+      <c r="K251" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>183</v>
+      </c>
+      <c r="B252" t="s">
+        <v>772</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>1000</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252" t="s">
+        <v>916</v>
+      </c>
+      <c r="K252" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>184</v>
+      </c>
+      <c r="B253" t="s">
+        <v>773</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1000</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253" t="s">
+        <v>916</v>
+      </c>
+      <c r="K253" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>710</v>
+      </c>
+      <c r="B254" t="s">
+        <v>711</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254" t="s">
+        <v>929</v>
+      </c>
+      <c r="K254" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>708</v>
+      </c>
+      <c r="B255" t="s">
+        <v>709</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255" t="s">
+        <v>929</v>
+      </c>
+      <c r="K255" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:O277">
+    <sortCondition ref="A1:A277"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83885F9D-6128-438E-9788-99A1B10D88C5}">
+  <dimension ref="A1:K266"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="100" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D1" t="str">
+        <f>VLOOKUP(B1,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16 </v>
+      </c>
+      <c r="K1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(B2,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16 </v>
+      </c>
+      <c r="K2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(B3,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(B4,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(B5,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>803</v>
+      </c>
+      <c r="B6" t="s">
+        <v>804</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(B6,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B7" t="s">
+        <v>806</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(B7,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>807</v>
+      </c>
+      <c r="B8" t="s">
+        <v>808</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(B8,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>809</v>
+      </c>
+      <c r="B9" t="s">
+        <v>810</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(B9,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(B10,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(B11,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(B12,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(B13,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B14" t="s">
+        <v>562</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(B14,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B15" t="s">
+        <v>556</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(B15,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>598</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(B16,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>599</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(B17,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K17" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>608</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(B18,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K18" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>623</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(B19,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K19" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>609</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(B20,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K20" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>624</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(B21,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K21" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>607</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(B22,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K22" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>622</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(B23,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K23" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>604</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(B24,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K24" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>619</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(B25,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D26" t="str">
+        <f>VLOOKUP(B26,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>620</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(B27,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K27" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>746</v>
+      </c>
+      <c r="D28" t="str">
+        <f>VLOOKUP(B28,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K28" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>747</v>
+      </c>
+      <c r="D29" t="str">
+        <f>VLOOKUP(B29,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K29" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>748</v>
+      </c>
+      <c r="D30" t="str">
+        <f>VLOOKUP(B30,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K30" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" t="s">
+        <v>749</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(B31,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K31" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" t="s">
+        <v>765</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(B32,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K32" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" t="s">
+        <v>766</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(B33,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K33" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>767</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(B34,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K34" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" t="s">
+        <v>768</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(B35,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED16  </v>
+      </c>
+      <c r="K35" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>570</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(B36,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED8   </v>
+      </c>
+      <c r="K36" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>571</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(B37,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED8   </v>
+      </c>
+      <c r="K37" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>567</v>
+      </c>
+      <c r="D38" t="str">
+        <f>VLOOKUP(B38,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">SIGNED8   </v>
+      </c>
+      <c r="K38" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" t="s">
+        <v>795</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP(B39,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
+        <v>794</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(B40,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" t="s">
+        <v>791</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(B41,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>783</v>
+      </c>
+      <c r="B42" t="s">
+        <v>784</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(B42,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>785</v>
+      </c>
+      <c r="B43" t="s">
+        <v>786</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(B43,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>712</v>
+      </c>
+      <c r="B44" t="s">
+        <v>713</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(B44,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>720</v>
+      </c>
+      <c r="B45" t="s">
+        <v>721</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(B45,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>716</v>
+      </c>
+      <c r="B46" t="s">
+        <v>717</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(B46,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" t="s">
+        <v>778</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(B47,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" t="s">
+        <v>777</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(B48,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>512</v>
+      </c>
+      <c r="B49" t="s">
+        <v>513</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(B49,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>852</v>
+      </c>
+      <c r="B50" t="s">
+        <v>853</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(B50,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>878</v>
+      </c>
+      <c r="B51" t="s">
+        <v>879</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(B51,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>872</v>
+      </c>
+      <c r="B52" t="s">
+        <v>873</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP(B52,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>874</v>
+      </c>
+      <c r="B53" t="s">
+        <v>875</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(B53,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>876</v>
+      </c>
+      <c r="B54" t="s">
+        <v>877</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(B54,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>850</v>
+      </c>
+      <c r="B55" t="s">
+        <v>851</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(B55,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>854</v>
+      </c>
+      <c r="B56" t="s">
+        <v>855</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(B56,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>864</v>
+      </c>
+      <c r="B57" t="s">
+        <v>865</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(B57,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>866</v>
+      </c>
+      <c r="B58" t="s">
+        <v>867</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(B58,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>868</v>
+      </c>
+      <c r="B59" t="s">
+        <v>869</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(B59,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>870</v>
+      </c>
+      <c r="B60" t="s">
+        <v>871</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(B60,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>856</v>
+      </c>
+      <c r="B61" t="s">
+        <v>857</v>
+      </c>
+      <c r="D61" t="str">
+        <f>VLOOKUP(B61,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>858</v>
+      </c>
+      <c r="B62" t="s">
+        <v>859</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(B62,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>860</v>
+      </c>
+      <c r="B63" t="s">
+        <v>861</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP(B63,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>862</v>
+      </c>
+      <c r="B64" t="s">
+        <v>863</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP(B64,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>633</v>
+      </c>
+      <c r="D65" t="str">
+        <f>VLOOKUP(B65,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" t="s">
+        <v>634</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(B66,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" t="s">
+        <v>635</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(B67,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" t="s">
+        <v>521</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(B68,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>725</v>
+      </c>
+      <c r="B69" t="s">
+        <v>726</v>
+      </c>
+      <c r="D69" t="str">
+        <f>VLOOKUP(B69,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>727</v>
+      </c>
+      <c r="B70" t="s">
+        <v>728</v>
+      </c>
+      <c r="D70" t="str">
+        <f>VLOOKUP(B70,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>729</v>
+      </c>
+      <c r="B71" t="s">
+        <v>730</v>
+      </c>
+      <c r="D71" t="str">
+        <f>VLOOKUP(B71,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>731</v>
+      </c>
+      <c r="B72" t="s">
+        <v>732</v>
+      </c>
+      <c r="D72" t="str">
+        <f>VLOOKUP(B72,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>733</v>
+      </c>
+      <c r="B73" t="s">
+        <v>734</v>
+      </c>
+      <c r="D73" t="str">
+        <f>VLOOKUP(B73,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K73" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>735</v>
+      </c>
+      <c r="B74" t="s">
+        <v>736</v>
+      </c>
+      <c r="D74" t="str">
+        <f>VLOOKUP(B74,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>737</v>
+      </c>
+      <c r="B75" t="s">
+        <v>738</v>
+      </c>
+      <c r="D75" t="str">
+        <f>VLOOKUP(B75,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>739</v>
+      </c>
+      <c r="B76" t="s">
+        <v>740</v>
+      </c>
+      <c r="D76" t="str">
+        <f>VLOOKUP(B76,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>741</v>
+      </c>
+      <c r="B77" t="s">
+        <v>742</v>
+      </c>
+      <c r="D77" t="str">
+        <f>VLOOKUP(B77,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>743</v>
+      </c>
+      <c r="B78" t="s">
+        <v>744</v>
+      </c>
+      <c r="D78" t="str">
+        <f>VLOOKUP(B78,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>638</v>
+      </c>
+      <c r="B79" t="s">
+        <v>639</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="str">
+        <f>VLOOKUP(B79,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>640</v>
+      </c>
+      <c r="B80" t="s">
+        <v>641</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="str">
+        <f>VLOOKUP(B80,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s">
+        <v>707</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="str">
+        <f>VLOOKUP(B81,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>595</v>
+      </c>
+      <c r="B82" t="s">
+        <v>596</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="str">
+        <f>VLOOKUP(B82,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" t="s">
+        <v>580</v>
+      </c>
+      <c r="D83" t="str">
+        <f>VLOOKUP(B83,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>591</v>
+      </c>
+      <c r="B84" t="s">
+        <v>592</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="str">
+        <f>VLOOKUP(B84,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>589</v>
+      </c>
+      <c r="B85" t="s">
+        <v>590</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="str">
+        <f>VLOOKUP(B85,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
+        <v>560</v>
+      </c>
+      <c r="D86" t="str">
+        <f>VLOOKUP(B86,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>563</v>
+      </c>
+      <c r="B87" t="s">
+        <v>564</v>
+      </c>
+      <c r="D87" t="str">
+        <f>VLOOKUP(B87,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" t="s">
+        <v>585</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="str">
+        <f>VLOOKUP(B88,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" t="s">
+        <v>586</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="str">
+        <f>VLOOKUP(B89,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" t="s">
+        <v>581</v>
+      </c>
+      <c r="D90" t="str">
+        <f>VLOOKUP(B90,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" t="s">
+        <v>758</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="str">
+        <f>VLOOKUP(B91,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" t="s">
+        <v>750</v>
+      </c>
+      <c r="D92" t="str">
+        <f>VLOOKUP(B92,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" t="s">
+        <v>751</v>
+      </c>
+      <c r="D93" t="str">
+        <f>VLOOKUP(B93,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K93" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" t="s">
+        <v>752</v>
+      </c>
+      <c r="D94" t="str">
+        <f>VLOOKUP(B94,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" t="s">
+        <v>753</v>
+      </c>
+      <c r="D95" t="str">
+        <f>VLOOKUP(B95,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" t="s">
+        <v>756</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="str">
+        <f>VLOOKUP(B96,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" t="s">
+        <v>757</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="str">
+        <f>VLOOKUP(B97,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" t="s">
+        <v>771</v>
+      </c>
+      <c r="D98" t="str">
+        <f>VLOOKUP(B98,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K98" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" t="s">
+        <v>774</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="str">
+        <f>VLOOKUP(B99,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" t="s">
+        <v>775</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="str">
+        <f>VLOOKUP(B100,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" t="s">
+        <v>770</v>
+      </c>
+      <c r="D101" t="str">
+        <f>VLOOKUP(B101,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K101" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" t="s">
+        <v>772</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="str">
+        <f>VLOOKUP(B102,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K102" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" t="s">
+        <v>773</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="str">
+        <f>VLOOKUP(B103,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED16</v>
+      </c>
+      <c r="K103" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>539</v>
+      </c>
+      <c r="B104" t="s">
+        <v>540</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="str">
+        <f>VLOOKUP(B104,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED16 </v>
+      </c>
+      <c r="K104" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>548</v>
+      </c>
+      <c r="B105" t="s">
+        <v>549</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="str">
+        <f>VLOOKUP(B105,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED16 </v>
+      </c>
+      <c r="K105" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>546</v>
+      </c>
+      <c r="B106" t="s">
+        <v>547</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="str">
+        <f>VLOOKUP(B106,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED16 </v>
+      </c>
+      <c r="K106" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>550</v>
+      </c>
+      <c r="B107" t="s">
+        <v>551</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="str">
+        <f>VLOOKUP(B107,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED16 </v>
+      </c>
+      <c r="K107" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>542</v>
+      </c>
+      <c r="B108" t="s">
+        <v>543</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="str">
+        <f>VLOOKUP(B108,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED16 </v>
+      </c>
+      <c r="K108" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>544</v>
+      </c>
+      <c r="B109" t="s">
+        <v>545</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="str">
+        <f>VLOOKUP(B109,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED16 </v>
+      </c>
+      <c r="K109" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>779</v>
+      </c>
+      <c r="B110" t="s">
+        <v>780</v>
+      </c>
+      <c r="D110" t="str">
+        <f>VLOOKUP(B110,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K110" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>839</v>
+      </c>
+      <c r="B111" t="s">
+        <v>840</v>
+      </c>
+      <c r="D111" t="str">
+        <f>VLOOKUP(B111,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K111" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>841</v>
+      </c>
+      <c r="B112" t="s">
+        <v>842</v>
+      </c>
+      <c r="D112" t="str">
+        <f>VLOOKUP(B112,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K112" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>847</v>
+      </c>
+      <c r="B113" t="s">
+        <v>848</v>
+      </c>
+      <c r="D113" t="str">
+        <f>VLOOKUP(B113,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K113" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>843</v>
+      </c>
+      <c r="B114" t="s">
+        <v>844</v>
+      </c>
+      <c r="D114" t="str">
+        <f>VLOOKUP(B114,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K114" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>845</v>
+      </c>
+      <c r="B115" t="s">
+        <v>846</v>
+      </c>
+      <c r="D115" t="str">
+        <f>VLOOKUP(B115,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K115" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>837</v>
+      </c>
+      <c r="B116" t="s">
+        <v>838</v>
+      </c>
+      <c r="D116" t="str">
+        <f>VLOOKUP(B116,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K116" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" t="s">
+        <v>522</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="str">
+        <f>VLOOKUP(B117,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K117" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" t="s">
+        <v>523</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="str">
+        <f>VLOOKUP(B118,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K118" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" t="s">
+        <v>579</v>
+      </c>
+      <c r="D119" t="str">
+        <f>VLOOKUP(B119,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K119" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>63</v>
+      </c>
+      <c r="B120" t="s">
+        <v>578</v>
+      </c>
+      <c r="D120" t="str">
+        <f>VLOOKUP(B120,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K120" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" t="s">
+        <v>566</v>
+      </c>
+      <c r="D121" t="str">
+        <f>VLOOKUP(B121,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K121" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" t="s">
+        <v>722</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="str">
+        <f>VLOOKUP(B122,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K122" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>75</v>
+      </c>
+      <c r="B123" t="s">
+        <v>602</v>
+      </c>
+      <c r="D123" t="str">
+        <f>VLOOKUP(B123,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K123" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>89</v>
+      </c>
+      <c r="B124" t="s">
+        <v>617</v>
+      </c>
+      <c r="D124" t="str">
+        <f>VLOOKUP(B124,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K124" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" t="s">
+        <v>603</v>
+      </c>
+      <c r="D125" t="str">
+        <f>VLOOKUP(B125,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K125" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>90</v>
+      </c>
+      <c r="B126" t="s">
+        <v>618</v>
+      </c>
+      <c r="D126" t="str">
+        <f>VLOOKUP(B126,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K126" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" t="s">
+        <v>754</v>
+      </c>
+      <c r="D127" t="str">
+        <f>VLOOKUP(B127,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K127" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>710</v>
+      </c>
+      <c r="B128" t="s">
+        <v>711</v>
+      </c>
+      <c r="D128" t="str">
+        <f>VLOOKUP(B128,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K128" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>708</v>
+      </c>
+      <c r="B129" t="s">
+        <v>709</v>
+      </c>
+      <c r="D129" t="str">
+        <f>VLOOKUP(B129,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED32</v>
+      </c>
+      <c r="K129" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>824</v>
+      </c>
+      <c r="B130" t="s">
+        <v>825</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="str">
+        <f>VLOOKUP(B130,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K130" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>822</v>
+      </c>
+      <c r="B131" t="s">
+        <v>823</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="str">
+        <f>VLOOKUP(B131,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K131" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>826</v>
+      </c>
+      <c r="B132" t="s">
+        <v>827</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="str">
+        <f>VLOOKUP(B132,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K132" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>820</v>
+      </c>
+      <c r="B133" t="s">
+        <v>821</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="str">
+        <f>VLOOKUP(B133,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K133" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>818</v>
+      </c>
+      <c r="B134" t="s">
+        <v>819</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="str">
+        <f>VLOOKUP(B134,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K134" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>816</v>
+      </c>
+      <c r="B135" t="s">
+        <v>817</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="str">
+        <f>VLOOKUP(B135,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K135" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>814</v>
+      </c>
+      <c r="B136" t="s">
+        <v>815</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="str">
+        <f>VLOOKUP(B136,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K136" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>882</v>
+      </c>
+      <c r="B137" t="s">
+        <v>883</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="str">
+        <f>VLOOKUP(B137,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K137" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>908</v>
+      </c>
+      <c r="B138" t="s">
+        <v>909</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="str">
+        <f>VLOOKUP(B138,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K138" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>902</v>
+      </c>
+      <c r="B139" t="s">
+        <v>903</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="str">
+        <f>VLOOKUP(B139,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K139" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>904</v>
+      </c>
+      <c r="B140" t="s">
+        <v>905</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="str">
+        <f>VLOOKUP(B140,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K140" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>906</v>
+      </c>
+      <c r="B141" t="s">
+        <v>907</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="str">
+        <f>VLOOKUP(B141,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K141" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>880</v>
+      </c>
+      <c r="B142" t="s">
+        <v>881</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="str">
+        <f>VLOOKUP(B142,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>884</v>
+      </c>
+      <c r="B143" t="s">
+        <v>885</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="str">
+        <f>VLOOKUP(B143,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K143" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>894</v>
+      </c>
+      <c r="B144" t="s">
+        <v>895</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="str">
+        <f>VLOOKUP(B144,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K144" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>896</v>
+      </c>
+      <c r="B145" t="s">
+        <v>897</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="str">
+        <f>VLOOKUP(B145,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K145" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>898</v>
+      </c>
+      <c r="B146" t="s">
+        <v>899</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="str">
+        <f>VLOOKUP(B146,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K146" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>900</v>
+      </c>
+      <c r="B147" t="s">
+        <v>901</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="str">
+        <f>VLOOKUP(B147,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K147" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>886</v>
+      </c>
+      <c r="B148" t="s">
+        <v>887</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="str">
+        <f>VLOOKUP(B148,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K148" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>888</v>
+      </c>
+      <c r="B149" t="s">
+        <v>889</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="str">
+        <f>VLOOKUP(B149,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K149" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>890</v>
+      </c>
+      <c r="B150" t="s">
+        <v>891</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="str">
+        <f>VLOOKUP(B150,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K150" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>892</v>
+      </c>
+      <c r="B151" t="s">
+        <v>893</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="str">
+        <f>VLOOKUP(B151,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K151" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>493</v>
+      </c>
+      <c r="B152" t="s">
+        <v>781</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="str">
+        <f>VLOOKUP(B152,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K152" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>494</v>
+      </c>
+      <c r="B153" t="s">
+        <v>782</v>
+      </c>
+      <c r="D153" t="str">
+        <f>VLOOKUP(B153,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K153" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>84</v>
+      </c>
+      <c r="B154" t="s">
+        <v>610</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="str">
+        <f>VLOOKUP(B154,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K154" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>98</v>
+      </c>
+      <c r="B155" t="s">
+        <v>625</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="str">
+        <f>VLOOKUP(B155,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K155" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>88</v>
+      </c>
+      <c r="B156" t="s">
+        <v>615</v>
+      </c>
+      <c r="D156" t="str">
+        <f>VLOOKUP(B156,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K156" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>102</v>
+      </c>
+      <c r="B157" t="s">
+        <v>629</v>
+      </c>
+      <c r="D157" t="str">
+        <f>VLOOKUP(B157,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K157" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>85</v>
+      </c>
+      <c r="B158" t="s">
+        <v>611</v>
+      </c>
+      <c r="D158" t="str">
+        <f>VLOOKUP(B158,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K158" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>99</v>
+      </c>
+      <c r="B159" t="s">
+        <v>626</v>
+      </c>
+      <c r="D159" t="str">
+        <f>VLOOKUP(B159,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K159" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>87</v>
+      </c>
+      <c r="B160" t="s">
+        <v>614</v>
+      </c>
+      <c r="D160" t="str">
+        <f>VLOOKUP(B160,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K160" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>101</v>
+      </c>
+      <c r="B161" t="s">
+        <v>628</v>
+      </c>
+      <c r="D161" t="str">
+        <f>VLOOKUP(B161,Лист4!$B$1:$K$255,10,0)</f>
+        <v>UNSIGNED8</v>
+      </c>
+      <c r="K161" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>203</v>
+      </c>
+      <c r="B162" t="s">
+        <v>800</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="str">
+        <f>VLOOKUP(B162,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K162" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>199</v>
+      </c>
+      <c r="B163" t="s">
+        <v>796</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="str">
+        <f>VLOOKUP(B163,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K163" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>200</v>
+      </c>
+      <c r="B164" t="s">
+        <v>797</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="str">
+        <f>VLOOKUP(B164,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K164" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>201</v>
+      </c>
+      <c r="B165" t="s">
+        <v>798</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="str">
+        <f>VLOOKUP(B165,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K165" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>202</v>
+      </c>
+      <c r="B166" t="s">
+        <v>799</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="str">
+        <f>VLOOKUP(B166,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K166" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>193</v>
+      </c>
+      <c r="B167" t="s">
+        <v>790</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="str">
+        <f>VLOOKUP(B167,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K167" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>519</v>
+      </c>
+      <c r="B168" t="s">
+        <v>520</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="str">
+        <f>VLOOKUP(B168,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K168" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>525</v>
+      </c>
+      <c r="B169" t="s">
+        <v>526</v>
+      </c>
+      <c r="D169" t="str">
+        <f>VLOOKUP(B169,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K169" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>535</v>
+      </c>
+      <c r="B170" t="s">
+        <v>536</v>
+      </c>
+      <c r="D170" t="str">
+        <f>VLOOKUP(B170,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K170" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>533</v>
+      </c>
+      <c r="B171" t="s">
+        <v>534</v>
+      </c>
+      <c r="D171" t="str">
+        <f>VLOOKUP(B171,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K171" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>537</v>
+      </c>
+      <c r="B172" t="s">
+        <v>538</v>
+      </c>
+      <c r="D172" t="str">
+        <f>VLOOKUP(B172,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K172" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>527</v>
+      </c>
+      <c r="B173" t="s">
+        <v>528</v>
+      </c>
+      <c r="D173" t="str">
+        <f>VLOOKUP(B173,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K173" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>529</v>
+      </c>
+      <c r="B174" t="s">
+        <v>530</v>
+      </c>
+      <c r="D174" t="str">
+        <f>VLOOKUP(B174,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K174" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>531</v>
+      </c>
+      <c r="B175" t="s">
+        <v>532</v>
+      </c>
+      <c r="D175" t="str">
+        <f>VLOOKUP(B175,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K175" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>714</v>
+      </c>
+      <c r="B176" t="s">
+        <v>715</v>
+      </c>
+      <c r="D176" t="str">
+        <f>VLOOKUP(B176,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K176" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>718</v>
+      </c>
+      <c r="B177" t="s">
+        <v>719</v>
+      </c>
+      <c r="D177" t="str">
+        <f>VLOOKUP(B177,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K177" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>829</v>
+      </c>
+      <c r="B178" t="s">
+        <v>830</v>
+      </c>
+      <c r="D178" t="str">
+        <f>VLOOKUP(B178,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K178" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>831</v>
+      </c>
+      <c r="B179" t="s">
+        <v>832</v>
+      </c>
+      <c r="D179" t="str">
+        <f>VLOOKUP(B179,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K179" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>835</v>
+      </c>
+      <c r="B180" t="s">
+        <v>836</v>
+      </c>
+      <c r="D180" t="str">
+        <f>VLOOKUP(B180,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K180" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>833</v>
+      </c>
+      <c r="B181" t="s">
+        <v>834</v>
+      </c>
+      <c r="D181" t="str">
+        <f>VLOOKUP(B181,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K181" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>517</v>
+      </c>
+      <c r="B182" t="s">
+        <v>518</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="str">
+        <f>VLOOKUP(B182,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K182" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>42</v>
+      </c>
+      <c r="B183" t="s">
+        <v>514</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" t="str">
+        <f>VLOOKUP(B183,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K183" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>103</v>
+      </c>
+      <c r="B184" t="s">
+        <v>631</v>
+      </c>
+      <c r="D184" t="str">
+        <f>VLOOKUP(B184,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K184" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>104</v>
+      </c>
+      <c r="B185" t="s">
+        <v>632</v>
+      </c>
+      <c r="D185" t="str">
+        <f>VLOOKUP(B185,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K185" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>723</v>
+      </c>
+      <c r="B186" t="s">
+        <v>724</v>
+      </c>
+      <c r="D186" t="str">
+        <f>VLOOKUP(B186,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K186" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>636</v>
+      </c>
+      <c r="B187" t="s">
+        <v>637</v>
+      </c>
+      <c r="D187" t="str">
+        <f>VLOOKUP(B187,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K187" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>787</v>
+      </c>
+      <c r="B188" t="s">
+        <v>788</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="str">
+        <f>VLOOKUP(B188,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K188" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>587</v>
+      </c>
+      <c r="B189" t="s">
+        <v>588</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189" t="str">
+        <f>VLOOKUP(B189,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K189" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>60</v>
+      </c>
+      <c r="B190" t="s">
+        <v>575</v>
+      </c>
+      <c r="D190" t="str">
+        <f>VLOOKUP(B190,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K190" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>62</v>
+      </c>
+      <c r="B191" t="s">
+        <v>577</v>
+      </c>
+      <c r="D191" t="str">
+        <f>VLOOKUP(B191,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K191" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>61</v>
+      </c>
+      <c r="B192" t="s">
+        <v>576</v>
+      </c>
+      <c r="D192" t="str">
+        <f>VLOOKUP(B192,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K192" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>59</v>
+      </c>
+      <c r="B193" t="s">
+        <v>574</v>
+      </c>
+      <c r="D193" t="str">
+        <f>VLOOKUP(B193,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K193" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>47</v>
+      </c>
+      <c r="B194" t="s">
+        <v>554</v>
+      </c>
+      <c r="D194" t="str">
+        <f>VLOOKUP(B194,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K194" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>558</v>
+      </c>
+      <c r="B195" t="s">
+        <v>559</v>
+      </c>
+      <c r="D195" t="str">
+        <f>VLOOKUP(B195,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K195" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>46</v>
+      </c>
+      <c r="B196" t="s">
+        <v>553</v>
+      </c>
+      <c r="D196" t="str">
+        <f>VLOOKUP(B196,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K196" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>58</v>
+      </c>
+      <c r="B197" t="s">
+        <v>573</v>
+      </c>
+      <c r="D197" t="str">
+        <f>VLOOKUP(B197,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K197" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>68</v>
+      </c>
+      <c r="B198" t="s">
+        <v>584</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="str">
+        <f>VLOOKUP(B198,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K198" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>57</v>
+      </c>
+      <c r="B199" t="s">
+        <v>572</v>
+      </c>
+      <c r="D199" t="str">
+        <f>VLOOKUP(B199,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K199" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>74</v>
+      </c>
+      <c r="B200" t="s">
+        <v>600</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="str">
+        <f>VLOOKUP(B200,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K200" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>79</v>
+      </c>
+      <c r="B201" t="s">
+        <v>606</v>
+      </c>
+      <c r="D201" t="str">
+        <f>VLOOKUP(B201,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K201" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>93</v>
+      </c>
+      <c r="B202" t="s">
+        <v>621</v>
+      </c>
+      <c r="D202" t="str">
+        <f>VLOOKUP(B202,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K202" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>173</v>
+      </c>
+      <c r="B203" t="s">
+        <v>761</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="str">
+        <f>VLOOKUP(B203,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K203" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>174</v>
+      </c>
+      <c r="B204" t="s">
+        <v>762</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="str">
+        <f>VLOOKUP(B204,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K204" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>175</v>
+      </c>
+      <c r="B205" t="s">
+        <v>763</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="str">
+        <f>VLOOKUP(B205,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K205" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>176</v>
+      </c>
+      <c r="B206" t="s">
+        <v>764</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="str">
+        <f>VLOOKUP(B206,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K206" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>172</v>
+      </c>
+      <c r="B207" t="s">
+        <v>760</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="str">
+        <f>VLOOKUP(B207,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K207" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>171</v>
+      </c>
+      <c r="B208" t="s">
+        <v>759</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="str">
+        <f>VLOOKUP(B208,Лист4!$B$1:$K$255,10,0)</f>
+        <v xml:space="preserve">UNSIGNED8 </v>
+      </c>
+      <c r="K208" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>942</v>
+      </c>
+      <c r="B209" t="s">
+        <v>943</v>
+      </c>
+      <c r="D209" t="e">
+        <f>VLOOKUP(B209,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K209" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>944</v>
+      </c>
+      <c r="B210" t="s">
+        <v>945</v>
+      </c>
+      <c r="D210" t="e">
+        <f>VLOOKUP(B210,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K210" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>946</v>
+      </c>
+      <c r="B211" t="s">
+        <v>947</v>
+      </c>
+      <c r="D211" t="e">
+        <f>VLOOKUP(B211,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K211" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>948</v>
+      </c>
+      <c r="B212" t="s">
+        <v>949</v>
+      </c>
+      <c r="D212" t="e">
+        <f>VLOOKUP(B212,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K212" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>950</v>
+      </c>
+      <c r="B213" t="s">
+        <v>951</v>
+      </c>
+      <c r="D213" t="e">
+        <f>VLOOKUP(B213,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>952</v>
+      </c>
+      <c r="B214" t="s">
+        <v>953</v>
+      </c>
+      <c r="D214" t="e">
+        <f>VLOOKUP(B214,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K214" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>954</v>
+      </c>
+      <c r="B215" t="s">
+        <v>955</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215" t="e">
+        <f>VLOOKUP(B215,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K215" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>956</v>
+      </c>
+      <c r="B216" t="s">
+        <v>957</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216" t="e">
+        <f>VLOOKUP(B216,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K216" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>958</v>
+      </c>
+      <c r="B217" t="s">
+        <v>959</v>
+      </c>
+      <c r="D217" t="e">
+        <f>VLOOKUP(B217,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>960</v>
+      </c>
+      <c r="B218" t="s">
+        <v>961</v>
+      </c>
+      <c r="D218" t="e">
+        <f>VLOOKUP(B218,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K218" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>962</v>
+      </c>
+      <c r="B219" t="s">
+        <v>963</v>
+      </c>
+      <c r="D219" t="e">
+        <f>VLOOKUP(B219,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K219" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>964</v>
+      </c>
+      <c r="B220" t="s">
+        <v>965</v>
+      </c>
+      <c r="D220" t="e">
+        <f>VLOOKUP(B220,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K220" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>966</v>
+      </c>
+      <c r="B221" t="s">
+        <v>967</v>
+      </c>
+      <c r="D221" t="e">
+        <f>VLOOKUP(B221,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K221" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>968</v>
+      </c>
+      <c r="B222" t="s">
+        <v>969</v>
+      </c>
+      <c r="D222" t="e">
+        <f>VLOOKUP(B222,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>970</v>
+      </c>
+      <c r="B223" t="s">
+        <v>971</v>
+      </c>
+      <c r="D223" t="e">
+        <f>VLOOKUP(B223,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K223" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>972</v>
+      </c>
+      <c r="B224" t="s">
+        <v>973</v>
+      </c>
+      <c r="D224" t="e">
+        <f>VLOOKUP(B224,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K224" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>974</v>
+      </c>
+      <c r="B225" t="s">
+        <v>975</v>
+      </c>
+      <c r="D225" t="e">
+        <f>VLOOKUP(B225,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K225" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>976</v>
+      </c>
+      <c r="B226" t="s">
+        <v>977</v>
+      </c>
+      <c r="D226" t="e">
+        <f>VLOOKUP(B226,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K226" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>978</v>
+      </c>
+      <c r="B227" t="s">
+        <v>979</v>
+      </c>
+      <c r="D227" t="e">
+        <f>VLOOKUP(B227,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K227" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>980</v>
+      </c>
+      <c r="B228" t="s">
+        <v>981</v>
+      </c>
+      <c r="D228" t="e">
+        <f>VLOOKUP(B228,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K228" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>982</v>
+      </c>
+      <c r="B229" t="s">
+        <v>983</v>
+      </c>
+      <c r="D229" t="e">
+        <f>VLOOKUP(B229,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K229" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>984</v>
+      </c>
+      <c r="B230" t="s">
+        <v>985</v>
+      </c>
+      <c r="D230" t="e">
+        <f>VLOOKUP(B230,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K230" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>986</v>
+      </c>
+      <c r="B231" t="s">
+        <v>987</v>
+      </c>
+      <c r="D231" t="e">
+        <f>VLOOKUP(B231,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K231" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>988</v>
+      </c>
+      <c r="B232" t="s">
+        <v>989</v>
+      </c>
+      <c r="D232" t="e">
+        <f>VLOOKUP(B232,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K232" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>990</v>
+      </c>
+      <c r="B233" t="s">
+        <v>991</v>
+      </c>
+      <c r="D233" t="e">
+        <f>VLOOKUP(B233,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K233" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>992</v>
+      </c>
+      <c r="B234" t="s">
+        <v>993</v>
+      </c>
+      <c r="D234" t="e">
+        <f>VLOOKUP(B234,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K234" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>994</v>
+      </c>
+      <c r="B235" t="s">
+        <v>995</v>
+      </c>
+      <c r="D235" t="e">
+        <f>VLOOKUP(B235,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K235" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>996</v>
+      </c>
+      <c r="B236" t="s">
+        <v>997</v>
+      </c>
+      <c r="D236" t="e">
+        <f>VLOOKUP(B236,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K236" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>998</v>
+      </c>
+      <c r="B237" t="s">
+        <v>999</v>
+      </c>
+      <c r="D237" t="e">
+        <f>VLOOKUP(B237,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K237" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D238" t="e">
+        <f>VLOOKUP(B238,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K238" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D239" t="e">
+        <f>VLOOKUP(B239,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K239" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D240" t="e">
+        <f>VLOOKUP(B240,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K240" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>75</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D241" t="e">
+        <f>VLOOKUP(B241,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K241" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>89</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D242" t="e">
+        <f>VLOOKUP(B242,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K242" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D243" t="e">
+        <f>VLOOKUP(B243,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K243" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D244" t="e">
+        <f>VLOOKUP(B244,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K244" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D245" t="e">
+        <f>VLOOKUP(B245,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K245" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D246" t="e">
+        <f>VLOOKUP(B246,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K246" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D247" t="e">
+        <f>VLOOKUP(B247,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K247" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D248" t="e">
+        <f>VLOOKUP(B248,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K248" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D249" t="e">
+        <f>VLOOKUP(B249,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K249" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D250" t="e">
+        <f>VLOOKUP(B250,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K250" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D251" t="e">
+        <f>VLOOKUP(B251,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K251" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252" t="e">
+        <f>VLOOKUP(B252,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K252" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253" t="e">
+        <f>VLOOKUP(B253,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K253" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254" t="e">
+        <f>VLOOKUP(B254,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K254" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255" t="e">
+        <f>VLOOKUP(B255,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K255" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256" t="e">
+        <f>VLOOKUP(B256,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K256" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257" t="e">
+        <f>VLOOKUP(B257,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K257" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258" t="e">
+        <f>VLOOKUP(B258,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K258" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259" t="e">
+        <f>VLOOKUP(B259,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K259" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260" t="e">
+        <f>VLOOKUP(B260,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K260" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261" t="e">
+        <f>VLOOKUP(B261,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K261" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D262" t="e">
+        <f>VLOOKUP(B262,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K262" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D263" t="e">
+        <f>VLOOKUP(B263,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K263" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D264" t="e">
+        <f>VLOOKUP(B264,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K264" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D265" t="e">
+        <f>VLOOKUP(B265,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K265" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D266" t="e">
+        <f>VLOOKUP(B266,Лист4!$B$1:$K$255,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K266" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K304">
+    <sortCondition ref="D1:D304"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>